--- a/Implicit_bias_pavlovia/task/blocks_order1.xlsx
+++ b/Implicit_bias_pavlovia/task/blocks_order1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\OpenBrains\Implicit_bias_pavlovia\task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\OpenBrains\Implicit_bias_pavlovia\task\html\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF20EAF5-38A3-40AF-B38E-033126439271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6164D0A-A338-4E97-A2BF-7D5B5F0F1DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-11595" windowWidth="29040" windowHeight="15990" xr2:uid="{488BF5F3-4C3B-C94C-AA7B-951EEDC2D5EA}"/>
+    <workbookView xWindow="-27210" yWindow="-9885" windowWidth="21600" windowHeight="11370" xr2:uid="{488BF5F3-4C3B-C94C-AA7B-951EEDC2D5EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,16 +74,6 @@
   </si>
   <si>
     <t>A = 
-Blanco o 
-Positivo</t>
-  </si>
-  <si>
-    <t>L = 
-Negro o 
-Negativo</t>
-  </si>
-  <si>
-    <t>A = 
 Negro</t>
   </si>
   <si>
@@ -92,13 +82,19 @@
   </si>
   <si>
     <t>A = 
-Negro o 
-Positivo</t>
+Blanco o Positivo</t>
+  </si>
+  <si>
+    <t>A = 
+Negro o Positivo</t>
   </si>
   <si>
     <t>L = 
-Blanco o 
-Negativo</t>
+Negro o Negativo</t>
+  </si>
+  <si>
+    <t>L = 
+Blanco o Negativo</t>
   </si>
 </sst>
 </file>
@@ -476,14 +472,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF895C05-31E8-8F40-AF1D-25BE7BA6D1D6}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="170" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" style="4"/>
+    <col min="2" max="2" width="30.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -519,15 +516,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -535,18 +532,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>17</v>
